--- a/src/predicciones/xgboost/producto_186.xlsx
+++ b/src/predicciones/xgboost/producto_186.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,1169 +386,1604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44930</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.9778729677200317</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44934</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>1.500973582267761</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44936</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>1.400008916854858</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44948</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>1.032633066177368</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44949</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>1.05158257484436</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44950</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>1.139315843582153</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44951</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>1.418194890022278</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44957</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>1.557016849517822</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>2</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44958</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>1.660457968711853</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44959</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>1.223224282264709</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44964</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>1.203287124633789</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>2</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44966</v>
       </c>
       <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
         <v>1.052697420120239</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44969</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>1.324991345405579</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>2</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44971</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
         <v>1.682753205299377</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44974</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>1.776244759559631</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>2</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44975</v>
       </c>
       <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
         <v>2.1349778175354</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>2</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44980</v>
       </c>
       <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>1.473624587059021</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44982</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>1.273344039916992</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44991</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>1.007918953895569</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>2</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44993</v>
       </c>
       <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
         <v>1.366536498069763</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>2</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44995</v>
       </c>
       <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
         <v>1.689146041870117</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44998</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>1.285962224006653</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45010</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>1.778490900993347</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45013</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>1.862088561058044</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>2</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45019</v>
       </c>
       <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
         <v>1.488677620887756</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>2</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45020</v>
       </c>
       <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>0.9800362586975098</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45025</v>
       </c>
       <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>1.634952902793884</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45026</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>1.411496162414551</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1</v>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45027</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>0.9639009237289429</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1</v>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45028</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>1.074080467224121</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1</v>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45029</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>1.070327281951904</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45032</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>1.061435461044312</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45036</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>1.066191911697388</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1</v>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45043</v>
       </c>
       <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
         <v>0.9414022564888</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1</v>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45046</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>1.014581799507141</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45050</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>1.002999782562256</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1</v>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45051</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>1.008431553840637</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>2</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45054</v>
       </c>
       <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
         <v>1.775467872619629</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1</v>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45055</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>1.029253005981445</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1</v>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45057</v>
       </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>1.407201170921326</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>2</v>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45061</v>
       </c>
       <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
         <v>1.998518824577332</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1</v>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45062</v>
       </c>
       <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>0.8880264163017273</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>2</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45063</v>
       </c>
       <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
         <v>1.51356053352356</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>2</v>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45064</v>
       </c>
       <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
         <v>1.200893640518188</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45072</v>
       </c>
       <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>1.072307705879211</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45074</v>
       </c>
       <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>2.053053855895996</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45075</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>1.560714602470398</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>2</v>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45086</v>
       </c>
       <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
         <v>2.061861753463745</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45087</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>1.08612596988678</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>2</v>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45090</v>
       </c>
       <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
         <v>1.093549251556396</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>1</v>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45091</v>
       </c>
       <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
         <v>0.9883754253387451</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1</v>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45092</v>
       </c>
       <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>1.266938447952271</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45093</v>
       </c>
       <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>1.797022104263306</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>2</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45094</v>
       </c>
       <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
         <v>1.040039777755737</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>1</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45100</v>
       </c>
       <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>0.9577792286872864</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>1</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45101</v>
       </c>
       <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
         <v>1.078538179397583</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>1</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45104</v>
       </c>
       <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
         <v>1.391748666763306</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>1</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45107</v>
       </c>
       <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>1.006339550018311</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45108</v>
       </c>
       <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
         <v>1.095567345619202</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>2</v>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45110</v>
       </c>
       <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
         <v>0.8388572335243225</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45112</v>
       </c>
       <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>0.8209376335144043</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>1</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45113</v>
       </c>
       <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>1.067739009857178</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>1</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45116</v>
       </c>
       <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>1.572380542755127</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>1</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45117</v>
       </c>
       <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
         <v>0.9647709131240845</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>1</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45118</v>
       </c>
       <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
         <v>1.114888787269592</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>2</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45119</v>
       </c>
       <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
         <v>0.9056670069694519</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>1</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45120</v>
       </c>
       <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
         <v>1.105802416801453</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>1</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45124</v>
       </c>
       <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
         <v>0.8682185411453247</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>1</v>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45126</v>
       </c>
       <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
         <v>0.8313509821891785</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1</v>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45128</v>
       </c>
       <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
         <v>0.8888190388679504</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1</v>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45131</v>
       </c>
       <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>0.978115975856781</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>1</v>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45133</v>
       </c>
       <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
         <v>1.261056780815125</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>1</v>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45136</v>
       </c>
       <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
         <v>1.020496606826782</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>1</v>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45141</v>
       </c>
       <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
         <v>0.8745826482772827</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45143</v>
       </c>
       <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>1.011983036994934</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>1</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45147</v>
       </c>
       <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
         <v>1.084820747375488</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>1</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45150</v>
       </c>
       <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <v>1.201120853424072</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>1</v>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45151</v>
       </c>
       <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
         <v>1.144012451171875</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>1</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45155</v>
       </c>
       <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <v>1.057844638824463</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>1</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45156</v>
       </c>
       <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
         <v>1.131184101104736</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>1</v>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45157</v>
       </c>
       <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
         <v>1.695876359939575</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>2</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45158</v>
       </c>
       <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
         <v>1.516936302185059</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>1</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45159</v>
       </c>
       <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <v>1.198911786079407</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>2</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45161</v>
       </c>
       <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <v>1.469808101654053</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>2</v>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45163</v>
       </c>
       <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
         <v>1.593688607215881</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>1</v>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45164</v>
       </c>
       <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <v>1.238815307617188</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>1</v>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45165</v>
       </c>
       <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
         <v>1.539096713066101</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>2</v>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45172</v>
       </c>
       <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
         <v>1.388697743415833</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>1</v>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45175</v>
       </c>
       <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
         <v>0.8705253005027771</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>1</v>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45176</v>
       </c>
       <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
         <v>1.459934115409851</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>2</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45178</v>
       </c>
       <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
         <v>1.758439302444458</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>1</v>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45181</v>
       </c>
       <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
         <v>0.825835108757019</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>1</v>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45182</v>
       </c>
       <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
         <v>1.667981147766113</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>2</v>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45184</v>
       </c>
       <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
         <v>1.742565512657166</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>1</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45196</v>
       </c>
       <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
         <v>1.586196541786194</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>2</v>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45198</v>
       </c>
       <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
         <v>1.380120158195496</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>2</v>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45201</v>
       </c>
       <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
         <v>1.708676218986511</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>1</v>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45205</v>
       </c>
       <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
         <v>1.058000087738037</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <v>1</v>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45207</v>
       </c>
       <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
         <v>1.702262163162231</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>1</v>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45210</v>
       </c>
       <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
         <v>1.56493866443634</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>1</v>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45211</v>
       </c>
       <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
         <v>0.952555239200592</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>1</v>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45220</v>
       </c>
       <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
         <v>1.731491088867188</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <v>2</v>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45225</v>
       </c>
       <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
         <v>1.470061540603638</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
-        <v>1</v>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45229</v>
       </c>
       <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
         <v>1.684964776039124</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>2</v>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45232</v>
       </c>
       <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
         <v>1.422997713088989</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>2</v>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45233</v>
       </c>
       <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
         <v>1.791463494300842</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>1</v>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45234</v>
       </c>
       <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
         <v>1.632933735847473</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>1</v>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45239</v>
       </c>
       <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
         <v>1.192289710044861</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>2</v>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45240</v>
       </c>
       <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
         <v>1.941215515136719</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
-        <v>1</v>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45252</v>
       </c>
       <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
         <v>0.9725558161735535</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>1</v>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45257</v>
       </c>
       <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
         <v>1.416297435760498</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
-        <v>1</v>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45258</v>
       </c>
       <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
         <v>1.665148735046387</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
-        <v>1</v>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45259</v>
       </c>
       <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
         <v>1.151771664619446</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
-        <v>2</v>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45261</v>
       </c>
       <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
         <v>1.119286775588989</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>1</v>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45266</v>
       </c>
       <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>0.9696016311645508</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
-        <v>1</v>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45272</v>
       </c>
       <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
         <v>1.135254621505737</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
-        <v>1</v>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45273</v>
       </c>
       <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
         <v>1.355339884757996</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>1</v>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45274</v>
       </c>
       <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
         <v>1.152657866477966</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>2</v>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45277</v>
       </c>
       <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
         <v>1.364995956420898</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121">
-        <v>1</v>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45281</v>
       </c>
       <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
         <v>1.432019591331482</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122">
-        <v>2</v>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45282</v>
       </c>
       <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
         <v>1.512574553489685</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123">
-        <v>1</v>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45287</v>
       </c>
       <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
         <v>1.1857670545578</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124">
-        <v>2</v>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45288</v>
       </c>
       <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
         <v>1.386919140815735</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
-        <v>1</v>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45289</v>
       </c>
       <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
         <v>0.9064409136772156</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
-        <v>1</v>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45294</v>
       </c>
       <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
         <v>0.9916384816169739</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127">
-        <v>1</v>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45295</v>
       </c>
       <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
         <v>1.147182822227478</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128">
-        <v>1</v>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45297</v>
       </c>
       <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
         <v>1.201712131500244</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>1</v>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45298</v>
       </c>
       <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
         <v>1.06420886516571</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>1</v>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45300</v>
       </c>
       <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
         <v>1.548520088195801</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>2</v>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45301</v>
       </c>
       <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
         <v>1.245682001113892</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
-        <v>1</v>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45305</v>
       </c>
       <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
         <v>1.591376185417175</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
-        <v>2</v>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45307</v>
       </c>
       <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
         <v>1.874150037765503</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134">
-        <v>2</v>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45316</v>
       </c>
       <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
         <v>1.714669346809387</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135">
-        <v>1</v>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45319</v>
       </c>
       <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
         <v>1.510763049125671</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136">
-        <v>2</v>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45321</v>
       </c>
       <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
         <v>1.479365944862366</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137">
-        <v>1</v>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45324</v>
       </c>
       <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
         <v>1.076485753059387</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138">
-        <v>1</v>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45325</v>
       </c>
       <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
         <v>1.009783983230591</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139">
-        <v>1</v>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45327</v>
       </c>
       <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
         <v>0.9250959157943726</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140">
-        <v>1</v>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45328</v>
       </c>
       <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
         <v>1.232864260673523</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141">
-        <v>1</v>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45329</v>
       </c>
       <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
         <v>1.014707326889038</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142">
-        <v>1</v>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45340</v>
       </c>
       <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
         <v>1.165799260139465</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
-        <v>1</v>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45341</v>
       </c>
       <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
         <v>0.9766895771026611</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144">
-        <v>1</v>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45346</v>
       </c>
       <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
         <v>1.070184350013733</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145">
-        <v>2</v>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45353</v>
       </c>
       <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
         <v>0.8901734352111816</v>
       </c>
     </row>
